--- a/Баллы 2016.xlsx
+++ b/Баллы 2016.xlsx
@@ -497,28 +497,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -1978,7 +1957,7 @@
       <c r="Z29" s="25"/>
     </row>
   </sheetData>
-  <sheetProtection sort="0"/>
+  <sheetProtection password="9DFC" sheet="1" objects="1" scenarios="1" sort="0"/>
   <mergeCells count="7">
     <mergeCell ref="W16:X16"/>
     <mergeCell ref="T16:V16"/>

--- a/Баллы 2016.xlsx
+++ b/Баллы 2016.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Варианты</t>
   </si>
@@ -79,6 +79,45 @@
   </si>
   <si>
     <t>Группа ФТ-61М</t>
+  </si>
+  <si>
+    <t>Булгакова Владислава</t>
+  </si>
+  <si>
+    <t>Ворошилов Даниил</t>
+  </si>
+  <si>
+    <t>Гмыря Анатолий</t>
+  </si>
+  <si>
+    <t>Ивакин Владимир</t>
+  </si>
+  <si>
+    <t>Коваленко Артемий</t>
+  </si>
+  <si>
+    <t>Можейко Екатерина</t>
+  </si>
+  <si>
+    <t>Осинцева Наталья</t>
+  </si>
+  <si>
+    <t>Павлюченко Вадим</t>
+  </si>
+  <si>
+    <t>Малышев Александр</t>
+  </si>
+  <si>
+    <t>Русинов Константин</t>
+  </si>
+  <si>
+    <t>Радченко Олеся</t>
+  </si>
+  <si>
+    <t>Сулуянов Егор</t>
+  </si>
+  <si>
+    <t>Скомороха Михаил</t>
   </si>
 </sst>
 </file>
@@ -114,7 +153,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,12 +178,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -466,9 +499,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -492,6 +522,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -829,7 +862,7 @@
       <pane xSplit="2" ySplit="16" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,11 +978,15 @@
       </c>
     </row>
     <row r="2" spans="1:28" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -973,7 +1010,7 @@
       <c r="X2" s="12"/>
       <c r="Y2" s="6">
         <f t="shared" ref="Y2:Y6" si="0">SUM(C2:X2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z2" s="7">
         <v>85</v>
@@ -988,11 +1025,15 @@
       </c>
     </row>
     <row r="3" spans="1:28" s="9" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
+      <c r="A3" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="B3" s="11">
         <v>2</v>
       </c>
-      <c r="C3" s="12"/>
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
@@ -1016,7 +1057,7 @@
       <c r="X3" s="12"/>
       <c r="Y3" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z3" s="14">
         <v>85</v>
@@ -1031,11 +1072,15 @@
       </c>
     </row>
     <row r="4" spans="1:28" s="9" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
+      <c r="A4" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="B4" s="11">
         <v>3</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="12">
+        <v>1</v>
+      </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -1059,7 +1104,7 @@
       <c r="X4" s="12"/>
       <c r="Y4" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4" s="14">
         <v>85</v>
@@ -1074,11 +1119,15 @@
       </c>
     </row>
     <row r="5" spans="1:28" s="9" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
+      <c r="A5" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="B5" s="11">
         <v>4</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
@@ -1102,7 +1151,7 @@
       <c r="X5" s="12"/>
       <c r="Y5" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5" s="14">
         <v>85</v>
@@ -1117,11 +1166,15 @@
       </c>
     </row>
     <row r="6" spans="1:28" s="9" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
+      <c r="A6" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="B6" s="11">
         <v>5</v>
       </c>
-      <c r="C6" s="12"/>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
@@ -1145,7 +1198,7 @@
       <c r="X6" s="12"/>
       <c r="Y6" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6" s="14">
         <v>85</v>
@@ -1160,11 +1213,15 @@
       </c>
     </row>
     <row r="7" spans="1:28" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
+      <c r="A7" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="B7" s="11">
         <v>6</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="12">
+        <v>1</v>
+      </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
@@ -1188,7 +1245,7 @@
       <c r="X7" s="12"/>
       <c r="Y7" s="6">
         <f t="shared" ref="Y7:Y15" si="4">SUM(C7:X7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7" s="14">
         <v>85</v>
@@ -1203,11 +1260,15 @@
       </c>
     </row>
     <row r="8" spans="1:28" s="9" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
+      <c r="A8" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="B8" s="11">
         <v>7</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="12">
+        <v>1</v>
+      </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
@@ -1231,7 +1292,7 @@
       <c r="X8" s="12"/>
       <c r="Y8" s="13">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8" s="14">
         <v>85</v>
@@ -1246,11 +1307,15 @@
       </c>
     </row>
     <row r="9" spans="1:28" s="9" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
+      <c r="A9" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="B9" s="11">
         <v>8</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="12">
+        <v>1</v>
+      </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -1274,7 +1339,7 @@
       <c r="X9" s="12"/>
       <c r="Y9" s="13">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9" s="14">
         <v>85</v>
@@ -1289,11 +1354,15 @@
       </c>
     </row>
     <row r="10" spans="1:28" s="9" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
+      <c r="A10" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="B10" s="11">
         <v>9</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="12">
+        <v>1</v>
+      </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
@@ -1317,7 +1386,7 @@
       <c r="X10" s="12"/>
       <c r="Y10" s="13">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z10" s="14">
         <v>85</v>
@@ -1332,11 +1401,15 @@
       </c>
     </row>
     <row r="11" spans="1:28" s="9" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
+      <c r="A11" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="B11" s="11">
         <v>10</v>
       </c>
-      <c r="C11" s="12"/>
+      <c r="C11" s="12">
+        <v>1</v>
+      </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -1360,7 +1433,7 @@
       <c r="X11" s="12"/>
       <c r="Y11" s="13">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z11" s="14">
         <v>85</v>
@@ -1375,11 +1448,15 @@
       </c>
     </row>
     <row r="12" spans="1:28" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
+      <c r="A12" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="B12" s="11">
         <v>11</v>
       </c>
-      <c r="C12" s="12"/>
+      <c r="C12" s="12">
+        <v>1</v>
+      </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
@@ -1403,7 +1480,7 @@
       <c r="X12" s="12"/>
       <c r="Y12" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z12" s="14">
         <v>85</v>
@@ -1418,11 +1495,15 @@
       </c>
     </row>
     <row r="13" spans="1:28" s="9" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
+      <c r="A13" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="B13" s="11">
         <v>12</v>
       </c>
-      <c r="C13" s="12"/>
+      <c r="C13" s="12">
+        <v>1</v>
+      </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -1446,7 +1527,7 @@
       <c r="X13" s="12"/>
       <c r="Y13" s="13">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z13" s="14">
         <v>85</v>
@@ -1461,11 +1542,15 @@
       </c>
     </row>
     <row r="14" spans="1:28" s="9" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
+      <c r="A14" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="B14" s="11">
         <v>13</v>
       </c>
-      <c r="C14" s="12"/>
+      <c r="C14" s="12">
+        <v>0</v>
+      </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
@@ -1504,13 +1589,15 @@
       </c>
     </row>
     <row r="15" spans="1:28" s="9" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="50" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="11">
         <v>14</v>
       </c>
-      <c r="C15" s="12"/>
+      <c r="C15" s="12">
+        <v>1</v>
+      </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
@@ -1534,7 +1621,7 @@
       <c r="X15" s="12"/>
       <c r="Y15" s="13">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z15" s="14">
         <v>85</v>
@@ -1551,42 +1638,42 @@
     <row r="16" spans="1:28" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="B16" s="18"/>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="49"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="48" t="s">
+      <c r="D16" s="48"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="49"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="48" t="s">
+      <c r="G16" s="48"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="45" t="s">
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="45" t="s">
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="R16" s="46"/>
-      <c r="S16" s="47"/>
-      <c r="T16" s="45" t="s">
+      <c r="R16" s="45"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="U16" s="46"/>
-      <c r="V16" s="47"/>
-      <c r="W16" s="43" t="s">
+      <c r="U16" s="45"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="X16" s="44"/>
+      <c r="X16" s="43"/>
       <c r="Y16" s="20"/>
       <c r="Z16" s="19"/>
       <c r="AA16" s="21"/>
@@ -1957,7 +2044,10 @@
       <c r="Z29" s="25"/>
     </row>
   </sheetData>
-  <sheetProtection password="9DFC" sheet="1" objects="1" scenarios="1" sort="0"/>
+  <sheetProtection sort="0"/>
+  <sortState ref="A2:A15">
+    <sortCondition ref="A2"/>
+  </sortState>
   <mergeCells count="7">
     <mergeCell ref="W16:X16"/>
     <mergeCell ref="T16:V16"/>

--- a/Баллы 2016.xlsx
+++ b/Баллы 2016.xlsx
@@ -499,6 +499,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -522,9 +525,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1589,7 +1589,7 @@
       </c>
     </row>
     <row r="15" spans="1:28" s="9" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="42" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="11">
@@ -1638,42 +1638,42 @@
     <row r="16" spans="1:28" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="B16" s="18"/>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="47" t="s">
+      <c r="D16" s="49"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="48"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="47" t="s">
+      <c r="G16" s="49"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="44" t="s">
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="44" t="s">
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="R16" s="45"/>
-      <c r="S16" s="46"/>
-      <c r="T16" s="44" t="s">
+      <c r="R16" s="46"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="U16" s="45"/>
-      <c r="V16" s="46"/>
-      <c r="W16" s="42" t="s">
+      <c r="U16" s="46"/>
+      <c r="V16" s="47"/>
+      <c r="W16" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="X16" s="43"/>
+      <c r="X16" s="44"/>
       <c r="Y16" s="20"/>
       <c r="Z16" s="19"/>
       <c r="AA16" s="21"/>
@@ -2044,7 +2044,7 @@
       <c r="Z29" s="25"/>
     </row>
   </sheetData>
-  <sheetProtection sort="0"/>
+  <sheetProtection password="9DFC" sheet="1" objects="1" scenarios="1" sort="0"/>
   <sortState ref="A2:A15">
     <sortCondition ref="A2"/>
   </sortState>

--- a/Баллы 2016.xlsx
+++ b/Баллы 2016.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Варианты</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>Скомороха Михаил</t>
+  </si>
+  <si>
+    <t>Требуется уточнение выполнения!</t>
   </si>
 </sst>
 </file>
@@ -128,7 +131,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +149,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -380,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -526,6 +536,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -862,7 +873,7 @@
       <pane xSplit="2" ySplit="16" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16:E16"/>
+      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,12 +993,14 @@
         <v>21</v>
       </c>
       <c r="B2" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -1010,7 +1023,7 @@
       <c r="X2" s="12"/>
       <c r="Y2" s="6">
         <f t="shared" ref="Y2:Y6" si="0">SUM(C2:X2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z2" s="7">
         <v>85</v>
@@ -1029,13 +1042,17 @@
         <v>22</v>
       </c>
       <c r="B3" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" s="12">
         <v>1</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="D3" s="12">
+        <v>1</v>
+      </c>
+      <c r="E3" s="12">
+        <v>5</v>
+      </c>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -1057,7 +1074,7 @@
       <c r="X3" s="12"/>
       <c r="Y3" s="13">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Z3" s="14">
         <v>85</v>
@@ -1076,12 +1093,14 @@
         <v>23</v>
       </c>
       <c r="B4" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="12">
         <v>1</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="12">
+        <v>1</v>
+      </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -1104,7 +1123,7 @@
       <c r="X4" s="12"/>
       <c r="Y4" s="13">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z4" s="14">
         <v>85</v>
@@ -1123,13 +1142,17 @@
         <v>24</v>
       </c>
       <c r="B5" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5" s="12">
         <v>1</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+      <c r="D5" s="12">
+        <v>1</v>
+      </c>
+      <c r="E5" s="12">
+        <v>5</v>
+      </c>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -1151,7 +1174,7 @@
       <c r="X5" s="12"/>
       <c r="Y5" s="13">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Z5" s="14">
         <v>85</v>
@@ -1170,12 +1193,14 @@
         <v>25</v>
       </c>
       <c r="B6" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="12">
         <v>1</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="12">
+        <v>1</v>
+      </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -1198,7 +1223,7 @@
       <c r="X6" s="12"/>
       <c r="Y6" s="13">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z6" s="14">
         <v>85</v>
@@ -1217,12 +1242,14 @@
         <v>29</v>
       </c>
       <c r="B7" s="11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" s="12">
         <v>1</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="12">
+        <v>1</v>
+      </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -1245,7 +1272,7 @@
       <c r="X7" s="12"/>
       <c r="Y7" s="6">
         <f t="shared" ref="Y7:Y15" si="4">SUM(C7:X7)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z7" s="14">
         <v>85</v>
@@ -1264,13 +1291,17 @@
         <v>26</v>
       </c>
       <c r="B8" s="11">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C8" s="12">
         <v>1</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="D8" s="12">
+        <v>1</v>
+      </c>
+      <c r="E8" s="12">
+        <v>5</v>
+      </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -1292,7 +1323,7 @@
       <c r="X8" s="12"/>
       <c r="Y8" s="13">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Z8" s="14">
         <v>85</v>
@@ -1311,12 +1342,14 @@
         <v>27</v>
       </c>
       <c r="B9" s="11">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9" s="12">
         <v>1</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="12">
+        <v>1</v>
+      </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -1339,7 +1372,7 @@
       <c r="X9" s="12"/>
       <c r="Y9" s="13">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z9" s="14">
         <v>85</v>
@@ -1358,12 +1391,14 @@
         <v>28</v>
       </c>
       <c r="B10" s="11">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C10" s="12">
         <v>1</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="12">
+        <v>1</v>
+      </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -1386,7 +1421,7 @@
       <c r="X10" s="12"/>
       <c r="Y10" s="13">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z10" s="14">
         <v>85</v>
@@ -1405,13 +1440,17 @@
         <v>31</v>
       </c>
       <c r="B11" s="11">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C11" s="12">
         <v>1</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+      <c r="D11" s="12">
+        <v>1</v>
+      </c>
+      <c r="E11" s="12">
+        <v>5</v>
+      </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
@@ -1433,7 +1472,7 @@
       <c r="X11" s="12"/>
       <c r="Y11" s="13">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Z11" s="14">
         <v>85</v>
@@ -1452,12 +1491,14 @@
         <v>30</v>
       </c>
       <c r="B12" s="11">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C12" s="12">
         <v>1</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="12">
+        <v>1</v>
+      </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -1480,7 +1521,7 @@
       <c r="X12" s="12"/>
       <c r="Y12" s="6">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z12" s="14">
         <v>85</v>
@@ -1499,13 +1540,17 @@
         <v>33</v>
       </c>
       <c r="B13" s="11">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C13" s="12">
         <v>1</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
+      <c r="D13" s="12">
+        <v>1</v>
+      </c>
+      <c r="E13" s="12">
+        <v>5</v>
+      </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
@@ -1527,7 +1572,7 @@
       <c r="X13" s="12"/>
       <c r="Y13" s="13">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Z13" s="14">
         <v>85</v>
@@ -1546,12 +1591,14 @@
         <v>32</v>
       </c>
       <c r="B14" s="11">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C14" s="12">
         <v>0</v>
       </c>
-      <c r="D14" s="12"/>
+      <c r="D14" s="12">
+        <v>0</v>
+      </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -1593,13 +1640,17 @@
         <v>11</v>
       </c>
       <c r="B15" s="11">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C15" s="12">
         <v>1</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+      <c r="D15" s="12">
+        <v>1</v>
+      </c>
+      <c r="E15" s="12">
+        <v>5</v>
+      </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
@@ -1621,7 +1672,7 @@
       <c r="X15" s="12"/>
       <c r="Y15" s="13">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Z15" s="14">
         <v>85</v>
@@ -1712,7 +1763,9 @@
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
+      <c r="E18" s="51" t="s">
+        <v>34</v>
+      </c>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>

--- a/Баллы 2016.xlsx
+++ b/Баллы 2016.xlsx
@@ -117,10 +117,10 @@
     <t>Сулуянов Егор</t>
   </si>
   <si>
-    <t>Скомороха Михаил</t>
-  </si>
-  <si>
     <t>Требуется уточнение выполнения!</t>
+  </si>
+  <si>
+    <t>Скамароха Михаил</t>
   </si>
 </sst>
 </file>
@@ -512,6 +512,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -536,7 +537,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -873,7 +873,7 @@
       <pane xSplit="2" ySplit="16" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,8 +1001,12 @@
       <c r="D2" s="5">
         <v>1</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="E2" s="5">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="12"/>
@@ -1023,7 +1027,7 @@
       <c r="X2" s="12"/>
       <c r="Y2" s="6">
         <f t="shared" ref="Y2:Y6" si="0">SUM(C2:X2)</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Z2" s="7">
         <v>85</v>
@@ -1053,7 +1057,9 @@
       <c r="E3" s="12">
         <v>5</v>
       </c>
-      <c r="F3" s="12"/>
+      <c r="F3" s="12">
+        <v>1</v>
+      </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
@@ -1074,7 +1080,7 @@
       <c r="X3" s="12"/>
       <c r="Y3" s="13">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z3" s="14">
         <v>85</v>
@@ -1101,8 +1107,12 @@
       <c r="D4" s="12">
         <v>1</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="E4" s="12">
+        <v>5</v>
+      </c>
+      <c r="F4" s="12">
+        <v>1</v>
+      </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
@@ -1123,7 +1133,7 @@
       <c r="X4" s="12"/>
       <c r="Y4" s="13">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Z4" s="14">
         <v>85</v>
@@ -1153,7 +1163,9 @@
       <c r="E5" s="12">
         <v>5</v>
       </c>
-      <c r="F5" s="12"/>
+      <c r="F5" s="12">
+        <v>1</v>
+      </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
@@ -1174,7 +1186,7 @@
       <c r="X5" s="12"/>
       <c r="Y5" s="13">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z5" s="14">
         <v>85</v>
@@ -1201,8 +1213,12 @@
       <c r="D6" s="12">
         <v>1</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="E6" s="12">
+        <v>5</v>
+      </c>
+      <c r="F6" s="12">
+        <v>1</v>
+      </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
@@ -1223,7 +1239,7 @@
       <c r="X6" s="12"/>
       <c r="Y6" s="13">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Z6" s="14">
         <v>85</v>
@@ -1250,8 +1266,12 @@
       <c r="D7" s="12">
         <v>1</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
+      <c r="E7" s="12">
+        <v>5</v>
+      </c>
+      <c r="F7" s="12">
+        <v>1</v>
+      </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
@@ -1272,7 +1292,7 @@
       <c r="X7" s="12"/>
       <c r="Y7" s="6">
         <f t="shared" ref="Y7:Y15" si="4">SUM(C7:X7)</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Z7" s="14">
         <v>85</v>
@@ -1302,7 +1322,9 @@
       <c r="E8" s="12">
         <v>5</v>
       </c>
-      <c r="F8" s="12"/>
+      <c r="F8" s="12">
+        <v>1</v>
+      </c>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
@@ -1323,7 +1345,7 @@
       <c r="X8" s="12"/>
       <c r="Y8" s="13">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z8" s="14">
         <v>85</v>
@@ -1350,8 +1372,12 @@
       <c r="D9" s="12">
         <v>1</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="E9" s="12">
+        <v>5</v>
+      </c>
+      <c r="F9" s="12">
+        <v>1</v>
+      </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -1372,7 +1398,7 @@
       <c r="X9" s="12"/>
       <c r="Y9" s="13">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Z9" s="14">
         <v>85</v>
@@ -1399,8 +1425,12 @@
       <c r="D10" s="12">
         <v>1</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="E10" s="12">
+        <v>5</v>
+      </c>
+      <c r="F10" s="12">
+        <v>1</v>
+      </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
@@ -1421,7 +1451,7 @@
       <c r="X10" s="12"/>
       <c r="Y10" s="13">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Z10" s="14">
         <v>85</v>
@@ -1451,7 +1481,9 @@
       <c r="E11" s="12">
         <v>5</v>
       </c>
-      <c r="F11" s="12"/>
+      <c r="F11" s="12">
+        <v>1</v>
+      </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
@@ -1472,7 +1504,7 @@
       <c r="X11" s="12"/>
       <c r="Y11" s="13">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z11" s="14">
         <v>85</v>
@@ -1499,8 +1531,12 @@
       <c r="D12" s="12">
         <v>1</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="E12" s="12">
+        <v>5</v>
+      </c>
+      <c r="F12" s="12">
+        <v>1</v>
+      </c>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
@@ -1521,7 +1557,7 @@
       <c r="X12" s="12"/>
       <c r="Y12" s="6">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Z12" s="14">
         <v>85</v>
@@ -1537,7 +1573,7 @@
     </row>
     <row r="13" spans="1:28" s="9" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" s="11">
         <v>2</v>
@@ -1551,7 +1587,9 @@
       <c r="E13" s="12">
         <v>5</v>
       </c>
-      <c r="F13" s="12"/>
+      <c r="F13" s="12">
+        <v>1</v>
+      </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
@@ -1572,7 +1610,7 @@
       <c r="X13" s="12"/>
       <c r="Y13" s="13">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z13" s="14">
         <v>85</v>
@@ -1599,8 +1637,12 @@
       <c r="D14" s="12">
         <v>0</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="E14" s="12">
+        <v>0</v>
+      </c>
+      <c r="F14" s="12">
+        <v>0</v>
+      </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
@@ -1651,7 +1693,9 @@
       <c r="E15" s="12">
         <v>5</v>
       </c>
-      <c r="F15" s="12"/>
+      <c r="F15" s="12">
+        <v>1</v>
+      </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
@@ -1672,7 +1716,7 @@
       <c r="X15" s="12"/>
       <c r="Y15" s="13">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z15" s="14">
         <v>85</v>
@@ -1689,42 +1733,42 @@
     <row r="16" spans="1:28" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="B16" s="18"/>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="49"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="48" t="s">
+      <c r="D16" s="50"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="49"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="48" t="s">
+      <c r="G16" s="50"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="45" t="s">
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="45" t="s">
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="R16" s="46"/>
-      <c r="S16" s="47"/>
-      <c r="T16" s="45" t="s">
+      <c r="R16" s="47"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="U16" s="46"/>
-      <c r="V16" s="47"/>
-      <c r="W16" s="43" t="s">
+      <c r="U16" s="47"/>
+      <c r="V16" s="48"/>
+      <c r="W16" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="X16" s="44"/>
+      <c r="X16" s="45"/>
       <c r="Y16" s="20"/>
       <c r="Z16" s="19"/>
       <c r="AA16" s="21"/>
@@ -1763,8 +1807,8 @@
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
-      <c r="E18" s="51" t="s">
-        <v>34</v>
+      <c r="E18" s="43" t="s">
+        <v>33</v>
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>

--- a/Баллы 2016.xlsx
+++ b/Баллы 2016.xlsx
@@ -873,7 +873,7 @@
       <pane xSplit="2" ySplit="16" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,7 +1060,9 @@
       <c r="F3" s="12">
         <v>1</v>
       </c>
-      <c r="G3" s="12"/>
+      <c r="G3" s="12">
+        <v>1</v>
+      </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
@@ -1080,7 +1082,7 @@
       <c r="X3" s="12"/>
       <c r="Y3" s="13">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z3" s="14">
         <v>85</v>
@@ -1166,7 +1168,9 @@
       <c r="F5" s="12">
         <v>1</v>
       </c>
-      <c r="G5" s="12"/>
+      <c r="G5" s="12">
+        <v>1</v>
+      </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
@@ -1186,7 +1190,7 @@
       <c r="X5" s="12"/>
       <c r="Y5" s="13">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z5" s="14">
         <v>85</v>
@@ -1272,7 +1276,9 @@
       <c r="F7" s="12">
         <v>1</v>
       </c>
-      <c r="G7" s="12"/>
+      <c r="G7" s="12">
+        <v>1</v>
+      </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
@@ -1292,7 +1298,7 @@
       <c r="X7" s="12"/>
       <c r="Y7" s="6">
         <f t="shared" ref="Y7:Y15" si="4">SUM(C7:X7)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z7" s="14">
         <v>85</v>
@@ -1325,7 +1331,9 @@
       <c r="F8" s="12">
         <v>1</v>
       </c>
-      <c r="G8" s="12"/>
+      <c r="G8" s="12">
+        <v>1</v>
+      </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -1345,7 +1353,7 @@
       <c r="X8" s="12"/>
       <c r="Y8" s="13">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z8" s="14">
         <v>85</v>
@@ -1431,7 +1439,9 @@
       <c r="F10" s="12">
         <v>1</v>
       </c>
-      <c r="G10" s="12"/>
+      <c r="G10" s="12">
+        <v>1</v>
+      </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -1451,7 +1461,7 @@
       <c r="X10" s="12"/>
       <c r="Y10" s="13">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z10" s="14">
         <v>85</v>
@@ -1484,7 +1494,9 @@
       <c r="F11" s="12">
         <v>1</v>
       </c>
-      <c r="G11" s="12"/>
+      <c r="G11" s="12">
+        <v>1</v>
+      </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
@@ -1504,7 +1516,7 @@
       <c r="X11" s="12"/>
       <c r="Y11" s="13">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z11" s="14">
         <v>85</v>
@@ -1590,7 +1602,9 @@
       <c r="F13" s="12">
         <v>1</v>
       </c>
-      <c r="G13" s="12"/>
+      <c r="G13" s="12">
+        <v>1</v>
+      </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
@@ -1610,7 +1624,7 @@
       <c r="X13" s="12"/>
       <c r="Y13" s="13">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z13" s="14">
         <v>85</v>
@@ -1643,7 +1657,9 @@
       <c r="F14" s="12">
         <v>0</v>
       </c>
-      <c r="G14" s="12"/>
+      <c r="G14" s="12">
+        <v>1</v>
+      </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
@@ -1663,7 +1679,7 @@
       <c r="X14" s="12"/>
       <c r="Y14" s="13">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z14" s="14">
         <v>85</v>
@@ -1696,7 +1712,9 @@
       <c r="F15" s="12">
         <v>1</v>
       </c>
-      <c r="G15" s="12"/>
+      <c r="G15" s="12">
+        <v>1</v>
+      </c>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -1716,7 +1734,7 @@
       <c r="X15" s="12"/>
       <c r="Y15" s="13">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z15" s="14">
         <v>85</v>
